--- a/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT).xlsx
+++ b/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1804,720 +1804,6 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AMIT KUMAR</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>100</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>P170</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>MUTHOOT</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ANIKET</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>P269</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>BRAJESH KUMAR MISHRA</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>P124</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>GARIB NATH SHARMA</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>100</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>P271</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>O239</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>GIRJESH KUMAR</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>100</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>P112</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>INDERJEET SINGH</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>100</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>P020</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MANOJ TOMAR</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>2975</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>P117</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>NITIN KUMAR KHARE</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>P241</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>MUTHOOT</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>100</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>P264</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SHARWAN</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>P119</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SOURAV KUMAR</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>3950</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>P261</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SUDHAKAR</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>3900</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>P126</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SUKHVINDER SINGH</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>100</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>P168</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>VIJAY KUMAR</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>P270</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
